--- a/Projekt1/Fragen-Antworten-Katalog.xlsx
+++ b/Projekt1/Fragen-Antworten-Katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/5 HS 2019/Projekt 1/bls/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C30280-AEC0-5844-8217-ECAF1E146424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB94A9-D4E3-0043-9182-16B4C1BE34C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24340" windowHeight="14980" xr2:uid="{C12555CE-3E7C-AA41-B5EE-8617F3E1DA16}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>ist die Applikation eine Webapp (browserbasiert) oder native?</t>
   </si>
   <si>
-    <t>wird die Applikation in eine bestehende Applikation eingebaut? (z.B. in Lezzgo?) &gt; Sitz­platz­reser­va­tion beim Ticketkauf als Option anbieten.</t>
-  </si>
-  <si>
     <t>wie wird anderen Reisenden im Wagon angezeigt, dass ein Platz reserviert ist?</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
     <t>nein, zu kompliziert</t>
   </si>
   <si>
-    <t>Annahme: es besteht eine digitale Anzeige. Anzeige "frei" oder Reservation von-bis: "Bern-Interlaken"</t>
-  </si>
-  <si>
-    <t>Digitale Sitzplatzreservationsanzeige.</t>
-  </si>
-  <si>
     <t>ist ein Sitzplatz reserviert, sollte für andere Reisende ersichtlich sein, auf welcher Strecke dies der Fall ist. -&gt; Sitzplatzreservationsanzeige im Zug.</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Nein, ausser Reservation wird auf andere Fahrt übertragen.</t>
   </si>
   <si>
-    <t>Bis zur minimalen Gruppengrösse, 10? 12?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fahrtrichtung nicht möglich (im voraus), da Zugzusammensetzung variieren kann. Sonst alles möglich. </t>
   </si>
   <si>
@@ -115,6 +103,18 @@
   </si>
   <si>
     <t>Keines, selber Systemkontext "erfinden".</t>
+  </si>
+  <si>
+    <t>Bis zur minimalen Gruppengrösse, 10? 12? So viele wie bestehende Tickets macht keinen Sinn, da Abo-Besitzer damit keine Reservation auslösen können.</t>
+  </si>
+  <si>
+    <t>wird die Applikation in eine bestehende Applikation eingebaut? (z.B. in Lezzgo?) -&gt; Sitzplatzreservation beim Ticketkauf als Option anbieten.</t>
+  </si>
+  <si>
+    <t>Annahme: es besteht eine digitale Anzeige. Anzeige "frei" oder Reservation von-bis: "Bern-Interlaken". Alternativ das Ticket der Reservation (auf Applikation)</t>
+  </si>
+  <si>
+    <t>Digitale Sitzplatzreservationsanzeige. "frei" oder "Bern-Thun".</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.2">
@@ -554,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -565,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.2">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -587,10 +587,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -598,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.2">
@@ -609,18 +609,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -631,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42" x14ac:dyDescent="0.2">
@@ -642,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -653,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -664,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt1/Fragen-Antworten-Katalog.xlsx
+++ b/Projekt1/Fragen-Antworten-Katalog.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/5 HS 2019/Projekt 1/bls/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB94A9-D4E3-0043-9182-16B4C1BE34C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BB71E-D955-D449-8E7B-D0117D315D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24340" windowHeight="14980" xr2:uid="{C12555CE-3E7C-AA41-B5EE-8617F3E1DA16}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$19</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Frage</t>
   </si>
@@ -115,13 +118,22 @@
   </si>
   <si>
     <t>Digitale Sitzplatzreservationsanzeige. "frei" oder "Bern-Thun".</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +146,14 @@
       <color theme="1"/>
       <name val="Lucida Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,13 +182,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -178,6 +195,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,184 +519,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6C229-211D-8D43-A068-06474D2DCE8B}">
-  <dimension ref="A1:C15"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="7.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="77.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="69.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="17">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="28" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="34" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="28" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="34" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="28" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="34" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="28" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="42" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="17">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D19" xr:uid="{2A8C3DA3-A55B-5B4C-8556-3DB3004FFF48}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Projekt1/Fragen-Antworten-Katalog.xlsx
+++ b/Projekt1/Fragen-Antworten-Katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yann/Documents/BFH Informatik/5 HS 2019/Projekt 1/bls/Projekt1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2BB71E-D955-D449-8E7B-D0117D315D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5DEA1-7A08-4E45-B040-0AFDA20B8CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24340" windowHeight="14980" xr2:uid="{C12555CE-3E7C-AA41-B5EE-8617F3E1DA16}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Frage</t>
   </si>
@@ -126,7 +126,34 @@
     <t>closed</t>
   </si>
   <si>
-    <t>open</t>
+    <t>Zugservice/-komposition: muss eine Lokomotive in der Zugkomposition abgebildet werden?</t>
+  </si>
+  <si>
+    <t>Wie soll eine Strecke am besten mit An- &amp; Abfahrtszeiten abgebildet werden: Zeitangaben oder Dauerangaben (Dauerangaben ermöglichen eine schnellere Anpassung der Zeiten sowohl für die Erstellung der Zugservices wie auch bei Verspätungen)?</t>
+  </si>
+  <si>
+    <t>Sind Vorgaben für die Platznummerierung vorhangen (à la BLS)?</t>
+  </si>
+  <si>
+    <t>Soll die Applikation für z.B. 3 zu reservierende Plätze Vorschläge unterbreiten?</t>
+  </si>
+  <si>
+    <t>Besteht ein Wagen aus Abteilen? Oder ist diese Differenzierung nicht notwendig?</t>
+  </si>
+  <si>
+    <t>Nein, ist für die Sitzplatzreservation irrelevant</t>
+  </si>
+  <si>
+    <t>Dauerangaben bzw. Zeitintervalle.</t>
+  </si>
+  <si>
+    <t>Keine vorgesehen. Admin soll selber entscheiden können.</t>
+  </si>
+  <si>
+    <t>Gute Idee, verbesserte UX. Option!</t>
+  </si>
+  <si>
+    <t>Keine Abteile.</t>
   </si>
 </sst>
 </file>
@@ -519,11 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6C229-211D-8D43-A068-06474D2DCE8B}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -547,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" hidden="1">
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -561,7 +587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" hidden="1">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -575,7 +601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" hidden="1">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -589,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28" hidden="1">
+    <row r="5" spans="1:4" ht="28">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -603,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" hidden="1">
+    <row r="6" spans="1:4" ht="34">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -617,7 +643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28" hidden="1">
+    <row r="7" spans="1:4" ht="28">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -631,7 +657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34" hidden="1">
+    <row r="8" spans="1:4" ht="34">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -645,7 +671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" hidden="1">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -659,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28" hidden="1">
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -673,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" hidden="1">
+    <row r="11" spans="1:4" ht="34">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -687,7 +713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28" hidden="1">
+    <row r="12" spans="1:4" ht="28">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -701,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="42" hidden="1">
+    <row r="13" spans="1:4" ht="42">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -715,7 +741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" hidden="1">
+    <row r="14" spans="1:4" ht="17">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -729,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" hidden="1">
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -748,41 +774,70 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17">
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19" xr:uid="{2A8C3DA3-A55B-5B4C-8556-3DB3004FFF48}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="open"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D19" xr:uid="{2A8C3DA3-A55B-5B4C-8556-3DB3004FFF48}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
